--- a/Tickets/Normal Tickets/Ticket 34184/Test Plan.xlsx
+++ b/Tickets/Normal Tickets/Ticket 34184/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\WIP\Tickets\Normal Tickets\Ticket 34184\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81E150-1697-47A0-BCA8-5685E832E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5463338C-2A81-4931-A774-18EDFC5D48C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -301,53 +301,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,22 +371,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>533400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581613</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>115559</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306865</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>77081</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F636E7C1-1076-2C92-0189-4FF89BE3F1F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239975B2-BDF0-0441-4555-00104A59F522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -402,140 +402,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="190500" y="2324100"/>
-          <a:ext cx="4210638" cy="9021434"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143679</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>86234</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E041A9-E4E2-3883-FD4D-6EAE799D00A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="11553825"/>
-          <a:ext cx="4867954" cy="3648584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76730</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>38444</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1031271C-EEE4-AF46-167E-F35163131514}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="15440025"/>
-          <a:ext cx="3801005" cy="2467319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>154559</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>86618</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24EA3F66-29E2-99F0-C422-82FBE49393EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="95250" y="18030825"/>
-          <a:ext cx="15470759" cy="6401693"/>
+          <a:off x="314325" y="2724150"/>
+          <a:ext cx="14794390" cy="6315956"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,119 +784,126 @@
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>1</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>3</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -1038,13 +913,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1060,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1075,58 +943,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="23">
+      <c r="B2" s="28"/>
+      <c r="C2" s="18">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="23" t="str">
+      <c r="B3" s="28"/>
+      <c r="C3" s="18" t="str">
         <f>'Test Cases'!B2</f>
         <v>Run Load MRP Job</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="23" t="str">
+      <c r="B4" s="28"/>
+      <c r="C4" s="18" t="str">
         <f>'Test Cases'!D2</f>
         <v>1) SQL Server Management Studio</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
@@ -1148,10 +1016,10 @@
       <c r="F6" s="26"/>
     </row>
     <row r="7" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="15" t="s">
         <v>31</v>
       </c>
@@ -1186,25 +1054,28 @@
       <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A8:F8"/>
@@ -1216,9 +1087,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1229,12 +1097,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1469,14 +1339,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1a638d2c-e7c0-419c-9191-e92086f67d97">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="84e25877-5f26-4dc3-9598-48e40fb4ec5c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1484,9 +1352,12 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1511,12 +1382,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1336CC8-439A-433F-AFCD-D3738BD4CF84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{433CEB9C-4DCB-4DF9-8E44-99AD43459D1C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1a638d2c-e7c0-419c-9191-e92086f67d97"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84e25877-5f26-4dc3-9598-48e40fb4ec5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
